--- a/biology/Botanique/Hedysareae/Hedysareae.xlsx
+++ b/biology/Botanique/Hedysareae/Hedysareae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hedysareae sont une tribu de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Eurasie, d'Amérique du Nord et d'Afrique, qui comprend une douzaine de genres regroupant de 400 à 460 espèces. Les trois principaux genres, par le nombre d'espèces, sont Hedysarum, Onobrychis et Caragana.
 Certaines espèces de la tribu des Hedysareae se caractérisent par leurs fruits lomentacés, type de gousse modifiée, indéhiscente, qui se désarticule au niveau des constrictions séparant les graines.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (11 juillet 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (11 juillet 2018) :
 Alhagi Gagnebin
 Calophaca Fisch. ex DC.
 Caragana Fabr.
@@ -527,7 +541,7 @@
 Sartoria Boiss. &amp; Heldr.
 Sulla Medik.
 Taverniera DC.
-Selon NCBI  (11 juillet 2018)[3] :
+Selon NCBI  (11 juillet 2018) :
 Alhagi Gagnebin, 1755
 Corethrodendron Fisch. &amp; Basiner, 1845
 Ebenus L., 1753
